--- a/machine_meta.xlsx
+++ b/machine_meta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t>編號</t>
   </si>
@@ -546,6 +546,12 @@
     <t xml:space="preserve">Dex-CTM 2mg Tab</t>
   </si>
   <si>
+    <t>DEH01O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehypotin Protect 40mg Tab</t>
+  </si>
+  <si>
     <t>DIL01O</t>
   </si>
   <si>
@@ -1042,7 +1048,6 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color indexed="64"/>
         <rFont val="Gentium Book Basic"/>
       </rPr>
       <t>e</t>
@@ -1790,6 +1795,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sodium Bicarbonate 600mg Tab</t>
+  </si>
+  <si>
+    <t>SPA05O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spastec FC 50mg Tab</t>
   </si>
   <si>
     <t>TAK01O</t>
@@ -2851,7 +2862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A222" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3710,8 +3721,8 @@
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="7">
-        <v>114</v>
+      <c r="A78" s="4">
+        <v>112</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>155</v>
@@ -3722,9 +3733,9 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="7">
-        <v>115</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -3733,9 +3744,9 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="7">
-        <v>116</v>
-      </c>
-      <c r="B80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3744,9 +3755,9 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="7">
-        <v>117</v>
-      </c>
-      <c r="B81" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3754,8 +3765,8 @@
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="4">
-        <v>120</v>
+      <c r="A82" s="7">
+        <v>117</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>163</v>
@@ -3765,8 +3776,8 @@
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="7">
-        <v>121</v>
+      <c r="A83" s="4">
+        <v>120</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>165</v>
@@ -3777,7 +3788,7 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>167</v>
@@ -3788,9 +3799,9 @@
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="7">
-        <v>124</v>
-      </c>
-      <c r="B85" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -3799,9 +3810,9 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="7">
-        <v>125</v>
-      </c>
-      <c r="B86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -3810,7 +3821,7 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="7">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>173</v>
@@ -3821,7 +3832,7 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>175</v>
@@ -3831,8 +3842,8 @@
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="4">
-        <v>130</v>
+      <c r="A89" s="7">
+        <v>129</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>177</v>
@@ -3842,8 +3853,8 @@
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="7">
-        <v>131</v>
+      <c r="A90" s="4">
+        <v>130</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>179</v>
@@ -3854,7 +3865,7 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>181</v>
@@ -3865,7 +3876,7 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>183</v>
@@ -3876,7 +3887,7 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>185</v>
@@ -3887,29 +3898,29 @@
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="7">
-        <v>135</v>
-      </c>
-      <c r="B94" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="7">
-        <v>136</v>
-      </c>
-      <c r="B95" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>191</v>
@@ -3920,7 +3931,7 @@
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>193</v>
@@ -3931,9 +3942,9 @@
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="7">
-        <v>139</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -3941,10 +3952,10 @@
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="4">
-        <v>140</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="7">
+        <v>139</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3952,10 +3963,10 @@
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="7">
-        <v>141</v>
-      </c>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="4">
+        <v>140</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -3964,7 +3975,7 @@
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>201</v>
@@ -3975,9 +3986,9 @@
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="7">
-        <v>143</v>
-      </c>
-      <c r="B102" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3986,9 +3997,9 @@
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="7">
-        <v>145</v>
-      </c>
-      <c r="B103" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -3997,9 +4008,9 @@
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="7">
-        <v>146</v>
-      </c>
-      <c r="B104" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -4008,9 +4019,9 @@
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="7">
-        <v>147</v>
-      </c>
-      <c r="B105" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -4019,9 +4030,9 @@
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="7">
-        <v>148</v>
-      </c>
-      <c r="B106" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -4030,7 +4041,7 @@
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>213</v>
@@ -4040,8 +4051,8 @@
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="4">
-        <v>152</v>
+      <c r="A108" s="7">
+        <v>149</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>215</v>
@@ -4051,8 +4062,8 @@
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="7">
-        <v>153</v>
+      <c r="A109" s="4">
+        <v>152</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>217</v>
@@ -4063,31 +4074,31 @@
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="7">
-        <v>156</v>
-      </c>
-      <c r="B112" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -4096,7 +4107,7 @@
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>225</v>
@@ -4107,9 +4118,9 @@
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="7">
-        <v>158</v>
-      </c>
-      <c r="B114" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -4117,10 +4128,10 @@
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="4">
-        <v>160</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="A115" s="7">
+        <v>158</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -4128,10 +4139,10 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="7">
-        <v>161</v>
-      </c>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="4">
+        <v>160</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4140,9 +4151,9 @@
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="7">
-        <v>163</v>
-      </c>
-      <c r="B117" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -4151,7 +4162,7 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>235</v>
@@ -4162,9 +4173,9 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="7">
-        <v>165</v>
-      </c>
-      <c r="B119" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -4173,7 +4184,7 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>239</v>
@@ -4184,9 +4195,9 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="7">
-        <v>168</v>
-      </c>
-      <c r="B121" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>241</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -4195,20 +4206,20 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="4">
-        <v>171</v>
-      </c>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="7">
+        <v>169</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -4216,19 +4227,19 @@
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="7">
-        <v>172</v>
+      <c r="A124" s="4">
+        <v>171</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>249</v>
@@ -4239,9 +4250,9 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="7">
-        <v>175</v>
-      </c>
-      <c r="B126" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C126" s="6" t="s">
@@ -4250,7 +4261,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="7">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>253</v>
@@ -4261,7 +4272,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>255</v>
@@ -4271,10 +4282,10 @@
       </c>
     </row>
     <row r="129" ht="14.25">
-      <c r="A129" s="4">
-        <v>181</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="7">
+        <v>179</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -4282,8 +4293,8 @@
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="7">
-        <v>182</v>
+      <c r="A130" s="4">
+        <v>181</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>259</v>
@@ -4294,7 +4305,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>261</v>
@@ -4305,7 +4316,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="7">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>263</v>
@@ -4316,7 +4327,7 @@
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>265</v>
@@ -4327,29 +4338,29 @@
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="135" ht="14.25">
-      <c r="A135" s="4">
+      <c r="A135" s="7">
+        <v>189</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="4">
         <v>190</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25">
-      <c r="A136" s="7">
-        <v>192</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>271</v>
@@ -4360,9 +4371,9 @@
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="7">
-        <v>195</v>
-      </c>
-      <c r="B137" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -4371,29 +4382,29 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="7">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="4">
-        <v>201</v>
+      <c r="A139" s="7">
+        <v>196</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="7">
-        <v>202</v>
+      <c r="A140" s="4">
+        <v>201</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>279</v>
@@ -4404,7 +4415,7 @@
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="7">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>281</v>
@@ -4415,31 +4426,31 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="7">
-        <v>207</v>
-      </c>
-      <c r="B142" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="7">
-        <v>208</v>
-      </c>
-      <c r="B143" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="7">
-        <v>209</v>
-      </c>
-      <c r="B144" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>287</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -4447,8 +4458,8 @@
       </c>
     </row>
     <row r="145" ht="14.25">
-      <c r="A145" s="4">
-        <v>210</v>
+      <c r="A145" s="7">
+        <v>209</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>289</v>
@@ -4458,10 +4469,10 @@
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="7">
-        <v>211</v>
-      </c>
-      <c r="B146" s="5" t="s">
+      <c r="A146" s="4">
+        <v>210</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C146" s="6" t="s">
@@ -4470,7 +4481,7 @@
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>293</v>
@@ -4481,7 +4492,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>295</v>
@@ -4492,7 +4503,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>297</v>
@@ -4502,10 +4513,10 @@
       </c>
     </row>
     <row r="150" ht="14.25">
-      <c r="A150" s="10">
-        <v>215</v>
-      </c>
-      <c r="B150" s="11" t="s">
+      <c r="A150" s="7">
+        <v>214</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>299</v>
       </c>
       <c r="C150" s="6" t="s">
@@ -4513,10 +4524,10 @@
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="7">
-        <v>216</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="10">
+        <v>215</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -4525,7 +4536,7 @@
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>303</v>
@@ -4536,7 +4547,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="7">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>305</v>
@@ -4546,8 +4557,8 @@
       </c>
     </row>
     <row r="154" ht="14.25">
-      <c r="A154" s="4">
-        <v>220</v>
+      <c r="A154" s="7">
+        <v>219</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>307</v>
@@ -4557,10 +4568,10 @@
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="7">
-        <v>222</v>
-      </c>
-      <c r="B155" s="8" t="s">
+      <c r="A155" s="4">
+        <v>220</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>309</v>
       </c>
       <c r="C155" s="6" t="s">
@@ -4569,29 +4580,29 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="7">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="7">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="7">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>315</v>
@@ -4602,7 +4613,7 @@
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="7">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>317</v>
@@ -4613,7 +4624,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="7">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>319</v>
@@ -4624,7 +4635,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>321</v>
@@ -4634,8 +4645,8 @@
       </c>
     </row>
     <row r="162" ht="14.25">
-      <c r="A162" s="4">
-        <v>230</v>
+      <c r="A162" s="7">
+        <v>229</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>323</v>
@@ -4645,8 +4656,8 @@
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="7">
-        <v>231</v>
+      <c r="A163" s="4">
+        <v>230</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>325</v>
@@ -4657,7 +4668,7 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="7">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>327</v>
@@ -4668,9 +4679,9 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="7">
-        <v>234</v>
-      </c>
-      <c r="B165" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -4679,7 +4690,7 @@
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="7">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>331</v>
@@ -4690,9 +4701,9 @@
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="7">
-        <v>238</v>
-      </c>
-      <c r="B167" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>333</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -4701,9 +4712,9 @@
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="7">
-        <v>239</v>
-      </c>
-      <c r="B168" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4711,10 +4722,10 @@
       </c>
     </row>
     <row r="169" ht="14.25">
-      <c r="A169" s="4">
-        <v>240</v>
-      </c>
-      <c r="B169" s="8" t="s">
+      <c r="A169" s="7">
+        <v>239</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>337</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -4722,8 +4733,8 @@
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="7">
-        <v>241</v>
+      <c r="A170" s="4">
+        <v>240</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>339</v>
@@ -4734,9 +4745,9 @@
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="7">
-        <v>243</v>
-      </c>
-      <c r="B171" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>341</v>
       </c>
       <c r="C171" s="6" t="s">
@@ -4745,29 +4756,29 @@
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="7">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="7">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="A174" s="4">
-        <v>251</v>
+      <c r="A174" s="7">
+        <v>247</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>347</v>
@@ -4777,8 +4788,8 @@
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="7">
-        <v>252</v>
+      <c r="A175" s="4">
+        <v>251</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>349</v>
@@ -4789,7 +4800,7 @@
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>351</v>
@@ -4800,9 +4811,9 @@
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="7">
-        <v>254</v>
-      </c>
-      <c r="B177" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>353</v>
       </c>
       <c r="C177" s="6" t="s">
@@ -4811,9 +4822,9 @@
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="7">
-        <v>255</v>
-      </c>
-      <c r="B178" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -4822,9 +4833,9 @@
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="7">
-        <v>256</v>
-      </c>
-      <c r="B179" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>357</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -4833,7 +4844,7 @@
     </row>
     <row r="180" ht="14.25">
       <c r="A180" s="7">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>359</v>
@@ -4844,9 +4855,9 @@
     </row>
     <row r="181" ht="14.25">
       <c r="A181" s="7">
-        <v>258</v>
-      </c>
-      <c r="B181" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -4854,8 +4865,8 @@
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="4">
-        <v>260</v>
+      <c r="A182" s="7">
+        <v>258</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>363</v>
@@ -4865,8 +4876,8 @@
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="7">
-        <v>261</v>
+      <c r="A183" s="4">
+        <v>260</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>365</v>
@@ -4877,7 +4888,7 @@
     </row>
     <row r="184" ht="14.25">
       <c r="A184" s="7">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>367</v>
@@ -4888,7 +4899,7 @@
     </row>
     <row r="185" ht="14.25">
       <c r="A185" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>369</v>
@@ -4899,29 +4910,29 @@
     </row>
     <row r="186" ht="14.25">
       <c r="A186" s="7">
-        <v>264</v>
-      </c>
-      <c r="B186" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="6" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="187" ht="14.25">
       <c r="A187" s="7">
-        <v>266</v>
-      </c>
-      <c r="B187" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="188" ht="14.25">
       <c r="A188" s="7">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>375</v>
@@ -4931,8 +4942,8 @@
       </c>
     </row>
     <row r="189" ht="14.25">
-      <c r="A189" s="4">
-        <v>271</v>
+      <c r="A189" s="7">
+        <v>267</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>377</v>
@@ -4942,32 +4953,32 @@
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="7">
-        <v>274</v>
-      </c>
-      <c r="B190" s="8" t="s">
+      <c r="A190" s="4">
+        <v>271</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="6" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="191" ht="14.25">
       <c r="A191" s="7">
-        <v>275</v>
-      </c>
-      <c r="B191" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="192" ht="14.25">
       <c r="A192" s="7">
-        <v>276</v>
-      </c>
-      <c r="B192" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C192" s="6" t="s">
@@ -4976,9 +4987,9 @@
     </row>
     <row r="193" ht="14.25">
       <c r="A193" s="7">
-        <v>278</v>
-      </c>
-      <c r="B193" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>385</v>
       </c>
       <c r="C193" s="6" t="s">
@@ -4987,7 +4998,7 @@
     </row>
     <row r="194" ht="14.25">
       <c r="A194" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>387</v>
@@ -4997,10 +5008,10 @@
       </c>
     </row>
     <row r="195" ht="14.25">
-      <c r="A195" s="4">
-        <v>280</v>
-      </c>
-      <c r="B195" s="8" t="s">
+      <c r="A195" s="7">
+        <v>279</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -5008,10 +5019,10 @@
       </c>
     </row>
     <row r="196" ht="14.25">
-      <c r="A196" s="7">
-        <v>281</v>
-      </c>
-      <c r="B196" s="5" t="s">
+      <c r="A196" s="4">
+        <v>280</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C196" s="6" t="s">
@@ -5020,7 +5031,7 @@
     </row>
     <row r="197" ht="14.25">
       <c r="A197" s="7">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>393</v>
@@ -5031,9 +5042,9 @@
     </row>
     <row r="198" ht="14.25">
       <c r="A198" s="7">
-        <v>287</v>
-      </c>
-      <c r="B198" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>395</v>
       </c>
       <c r="C198" s="6" t="s">
@@ -5042,9 +5053,9 @@
     </row>
     <row r="199" ht="14.25">
       <c r="A199" s="7">
-        <v>288</v>
-      </c>
-      <c r="B199" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>397</v>
       </c>
       <c r="C199" s="6" t="s">
@@ -5052,30 +5063,30 @@
       </c>
     </row>
     <row r="200" ht="14.25">
-      <c r="A200" s="4">
-        <v>290</v>
+      <c r="A200" s="7">
+        <v>288</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="6" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="201" ht="14.25">
-      <c r="A201" s="7">
-        <v>291</v>
+      <c r="A201" s="4">
+        <v>290</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="9" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="7">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>403</v>
@@ -5086,9 +5097,9 @@
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="7">
-        <v>293</v>
-      </c>
-      <c r="B203" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -5097,18 +5108,18 @@
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="7">
-        <v>295</v>
-      </c>
-      <c r="B204" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>409</v>
@@ -5119,18 +5130,18 @@
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="7">
-        <v>297</v>
-      </c>
-      <c r="B206" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="7">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>413</v>
@@ -5140,8 +5151,8 @@
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="4">
-        <v>302</v>
+      <c r="A208" s="7">
+        <v>298</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>415</v>
@@ -5151,10 +5162,10 @@
       </c>
     </row>
     <row r="209" ht="14.25">
-      <c r="A209" s="7">
-        <v>303</v>
-      </c>
-      <c r="B209" s="5" t="s">
+      <c r="A209" s="4">
+        <v>302</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>417</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -5163,7 +5174,7 @@
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="7">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>419</v>
@@ -5174,29 +5185,29 @@
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="7">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="7">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>425</v>
@@ -5207,9 +5218,9 @@
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="7">
-        <v>308</v>
-      </c>
-      <c r="B214" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>427</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -5217,8 +5228,8 @@
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="4">
-        <v>312</v>
+      <c r="A215" s="7">
+        <v>308</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>429</v>
@@ -5228,32 +5239,32 @@
       </c>
     </row>
     <row r="216" ht="14.25">
-      <c r="A216" s="7">
-        <v>313</v>
+      <c r="A216" s="4">
+        <v>312</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="7">
-        <v>314</v>
-      </c>
-      <c r="B217" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B217" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="7">
-        <v>315</v>
-      </c>
-      <c r="B218" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C218" s="6" t="s">
@@ -5262,9 +5273,9 @@
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="7">
-        <v>316</v>
-      </c>
-      <c r="B219" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B219" s="8" t="s">
         <v>437</v>
       </c>
       <c r="C219" s="6" t="s">
@@ -5273,7 +5284,7 @@
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="7">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>439</v>
@@ -5284,9 +5295,9 @@
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="7">
-        <v>319</v>
-      </c>
-      <c r="B221" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>441</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -5294,10 +5305,10 @@
       </c>
     </row>
     <row r="222" ht="14.25">
-      <c r="A222" s="4">
-        <v>320</v>
-      </c>
-      <c r="B222" s="5" t="s">
+      <c r="A222" s="7">
+        <v>319</v>
+      </c>
+      <c r="B222" s="8" t="s">
         <v>443</v>
       </c>
       <c r="C222" s="6" t="s">
@@ -5305,8 +5316,8 @@
       </c>
     </row>
     <row r="223" ht="14.25">
-      <c r="A223" s="7">
-        <v>323</v>
+      <c r="A223" s="4">
+        <v>320</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>445</v>
@@ -5317,7 +5328,7 @@
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="7">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>447</v>
@@ -5328,7 +5339,7 @@
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="7">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>449</v>
@@ -5339,7 +5350,7 @@
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="7">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>451</v>
@@ -5350,7 +5361,7 @@
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="7">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>453</v>
@@ -5361,7 +5372,7 @@
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="7">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>455</v>
@@ -5371,8 +5382,8 @@
       </c>
     </row>
     <row r="229" ht="14.25">
-      <c r="A229" s="4">
-        <v>330</v>
+      <c r="A229" s="7">
+        <v>329</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>457</v>
@@ -5382,8 +5393,8 @@
       </c>
     </row>
     <row r="230" ht="14.25">
-      <c r="A230" s="7">
-        <v>331</v>
+      <c r="A230" s="4">
+        <v>330</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>459</v>
@@ -5394,7 +5405,7 @@
     </row>
     <row r="231" ht="14.25">
       <c r="A231" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>461</v>
@@ -5405,7 +5416,7 @@
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="7">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>463</v>
@@ -5416,7 +5427,7 @@
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="7">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>465</v>
@@ -5427,7 +5438,7 @@
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="7">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>467</v>
@@ -5438,7 +5449,7 @@
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>469</v>
@@ -5449,18 +5460,18 @@
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="7">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="6" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="237" ht="14.25">
-      <c r="A237" s="4">
-        <v>340</v>
+      <c r="A237" s="7">
+        <v>338</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>473</v>
@@ -5471,29 +5482,29 @@
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="7">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="239" ht="14.25">
-      <c r="A239" s="7">
-        <v>342</v>
+      <c r="A239" s="4">
+        <v>340</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="9" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="240" ht="14.25">
       <c r="A240" s="7">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>479</v>
@@ -5504,18 +5515,18 @@
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="7">
-        <v>345</v>
-      </c>
-      <c r="B241" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="6" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="7">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>483</v>
@@ -5526,18 +5537,18 @@
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="7">
-        <v>347</v>
-      </c>
-      <c r="B243" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B243" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" s="9" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="7">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>487</v>
@@ -5547,8 +5558,8 @@
       </c>
     </row>
     <row r="245" ht="14.25">
-      <c r="A245" s="4">
-        <v>350</v>
+      <c r="A245" s="7">
+        <v>347</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>489</v>
@@ -5559,7 +5570,7 @@
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="7">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>491</v>
@@ -5569,10 +5580,10 @@
       </c>
     </row>
     <row r="247" ht="14.25">
-      <c r="A247" s="7">
-        <v>352</v>
-      </c>
-      <c r="B247" s="8" t="s">
+      <c r="A247" s="4">
+        <v>350</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>493</v>
       </c>
       <c r="C247" s="6" t="s">
@@ -5581,7 +5592,7 @@
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="7">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>495</v>
@@ -5592,9 +5603,9 @@
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="7">
-        <v>354</v>
-      </c>
-      <c r="B249" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B249" s="8" t="s">
         <v>497</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -5603,7 +5614,7 @@
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="7">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>499</v>
@@ -5613,10 +5624,10 @@
       </c>
     </row>
     <row r="251" ht="14.25">
-      <c r="A251" s="4">
-        <v>360</v>
-      </c>
-      <c r="B251" s="8" t="s">
+      <c r="A251" s="7">
+        <v>354</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>501</v>
       </c>
       <c r="C251" s="6" t="s">
@@ -5625,7 +5636,7 @@
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="7">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>503</v>
@@ -5635,10 +5646,10 @@
       </c>
     </row>
     <row r="253" ht="14.25">
-      <c r="A253" s="7">
-        <v>362</v>
-      </c>
-      <c r="B253" s="5" t="s">
+      <c r="A253" s="4">
+        <v>360</v>
+      </c>
+      <c r="B253" s="8" t="s">
         <v>505</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -5647,7 +5658,7 @@
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="7">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>507</v>
@@ -5658,7 +5669,7 @@
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="7">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>509</v>
@@ -5669,7 +5680,7 @@
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="7">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>511</v>
@@ -5679,8 +5690,8 @@
       </c>
     </row>
     <row r="257" ht="14.25">
-      <c r="A257" s="4">
-        <v>370</v>
+      <c r="A257" s="7">
+        <v>367</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>513</v>
@@ -5691,9 +5702,9 @@
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="7">
-        <v>372</v>
-      </c>
-      <c r="B258" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>515</v>
       </c>
       <c r="C258" s="6" t="s">
@@ -5701,8 +5712,8 @@
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="7">
-        <v>373</v>
+      <c r="A259" s="4">
+        <v>370</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>517</v>
@@ -5713,7 +5724,7 @@
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="7">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>519</v>
@@ -5724,9 +5735,9 @@
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="7">
-        <v>376</v>
-      </c>
-      <c r="B261" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>521</v>
       </c>
       <c r="C261" s="6" t="s">
@@ -5735,7 +5746,7 @@
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="7">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>523</v>
@@ -5746,9 +5757,9 @@
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="7">
-        <v>378</v>
-      </c>
-      <c r="B263" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>525</v>
       </c>
       <c r="C263" s="6" t="s">
@@ -5757,9 +5768,9 @@
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="7">
-        <v>379</v>
-      </c>
-      <c r="B264" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B264" s="8" t="s">
         <v>527</v>
       </c>
       <c r="C264" s="6" t="s">
@@ -5767,8 +5778,8 @@
       </c>
     </row>
     <row r="265" ht="14.25">
-      <c r="A265" s="4">
-        <v>380</v>
+      <c r="A265" s="7">
+        <v>378</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>529</v>
@@ -5779,18 +5790,18 @@
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="7">
-        <v>381</v>
-      </c>
-      <c r="B266" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="6" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="7">
-        <v>382</v>
+      <c r="A267" s="4">
+        <v>380</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>533</v>
@@ -5801,40 +5812,40 @@
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="7">
+        <v>381</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" s="7">
+        <v>382</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" s="7">
         <v>383</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="269" ht="14.25">
-      <c r="A269" s="12">
-        <v>385</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="C269" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="270" ht="14.25">
-      <c r="A270" s="12">
-        <v>386</v>
-      </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="6" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="12">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>541</v>
@@ -5845,40 +5856,40 @@
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="12">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C272" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="12">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="14" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="274" ht="14.25">
-      <c r="A274" s="16">
-        <v>390</v>
+      <c r="A274" s="12">
+        <v>388</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="12">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>549</v>
@@ -5888,8 +5899,8 @@
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="12">
-        <v>392</v>
+      <c r="A276" s="16">
+        <v>390</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>551</v>
@@ -5900,51 +5911,51 @@
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="12">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B277" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="C277" s="14" t="s">
+      <c r="C277" s="15" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="12">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B278" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C278" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="12">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="14" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="12">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B280" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="12">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>561</v>
@@ -5955,7 +5966,7 @@
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="12">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B282" s="13" t="s">
         <v>563</v>
@@ -5965,19 +5976,41 @@
       </c>
     </row>
     <row r="283" ht="14.25">
-      <c r="A283" s="16">
-        <v>400</v>
+      <c r="A283" s="12">
+        <v>398</v>
       </c>
       <c r="B283" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C283" s="15" t="s">
         <v>566</v>
       </c>
     </row>
+    <row r="284" ht="14.25">
+      <c r="A284" s="12">
+        <v>399</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" s="16">
+        <v>400</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C283" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="A2:A283"/>
+  <sortState ref="A2:C285" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="A2:A285"/>
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/machine_meta.xlsx
+++ b/machine_meta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="573">
   <si>
     <t>編號</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">Acetazolamide 250mg Tab</t>
+  </si>
+  <si>
+    <t>ABCDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 123 mg</t>
   </si>
   <si>
     <t>AGR01O</t>
@@ -2862,7 +2868,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="8" ht="22.5">
       <c r="A8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -2962,10 +2968,10 @@
       </c>
     </row>
     <row r="9" ht="22.5">
-      <c r="A9" s="4">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2973,10 +2979,10 @@
       </c>
     </row>
     <row r="10" ht="22.5">
-      <c r="A10" s="7">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2985,7 +2991,7 @@
     </row>
     <row r="11" ht="22.5">
       <c r="A11" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>21</v>
@@ -2996,9 +3002,9 @@
     </row>
     <row r="12" ht="22.5">
       <c r="A12" s="7">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3007,7 +3013,7 @@
     </row>
     <row r="13" ht="22.5">
       <c r="A13" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="14" ht="22.5">
       <c r="A14" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
@@ -3029,9 +3035,9 @@
     </row>
     <row r="15" ht="22.5">
       <c r="A15" s="7">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3040,9 +3046,9 @@
     </row>
     <row r="16" ht="22.5">
       <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3050,10 +3056,10 @@
       </c>
     </row>
     <row r="17" ht="22.5">
-      <c r="A17" s="4">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3061,10 +3067,10 @@
       </c>
     </row>
     <row r="18" ht="22.5">
-      <c r="A18" s="7">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3073,7 +3079,7 @@
     </row>
     <row r="19" ht="22.5">
       <c r="A19" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
@@ -3084,29 +3090,29 @@
     </row>
     <row r="20" ht="22.5">
       <c r="A20" s="7">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" ht="22.5">
       <c r="A21" s="7">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5">
+      <c r="A22" s="7">
         <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5">
-      <c r="A22" s="4">
-        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>43</v>
@@ -3116,10 +3122,10 @@
       </c>
     </row>
     <row r="23" ht="22.5">
-      <c r="A23" s="7">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="4">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3128,31 +3134,31 @@
     </row>
     <row r="24" ht="22.5">
       <c r="A24" s="7">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" ht="22.5">
       <c r="A25" s="7">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" ht="22.5">
       <c r="A26" s="7">
-        <v>37</v>
-      </c>
-      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -3161,7 +3167,7 @@
     </row>
     <row r="27" ht="22.5">
       <c r="A27" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>53</v>
@@ -3172,9 +3178,9 @@
     </row>
     <row r="28" ht="22.5">
       <c r="A28" s="7">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3182,32 +3188,32 @@
       </c>
     </row>
     <row r="29" ht="22.5">
-      <c r="A29" s="4">
-        <v>40</v>
+      <c r="A29" s="7">
+        <v>39</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" ht="22.5">
-      <c r="A30" s="7">
-        <v>41</v>
+      <c r="A30" s="4">
+        <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" ht="22.5">
       <c r="A31" s="7">
-        <v>43</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3216,31 +3222,31 @@
     </row>
     <row r="32" ht="22.5">
       <c r="A32" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" ht="22.5">
       <c r="A33" s="7">
-        <v>46</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" ht="22.5">
       <c r="A34" s="7">
-        <v>47</v>
-      </c>
-      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3249,29 +3255,29 @@
     </row>
     <row r="35" ht="22.5">
       <c r="A35" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="22.5">
       <c r="A36" s="7">
+        <v>48</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5">
+      <c r="A37" s="7">
         <v>49</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" ht="22.5">
-      <c r="A37" s="4">
-        <v>51</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>73</v>
@@ -3281,10 +3287,10 @@
       </c>
     </row>
     <row r="38" ht="22.5">
-      <c r="A38" s="7">
-        <v>52</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4">
+        <v>51</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3293,29 +3299,29 @@
     </row>
     <row r="39" ht="22.5">
       <c r="A39" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" ht="22.5">
       <c r="A40" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" ht="22.5">
       <c r="A41" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>81</v>
@@ -3326,9 +3332,9 @@
     </row>
     <row r="42" ht="22.5">
       <c r="A42" s="7">
-        <v>56</v>
-      </c>
-      <c r="B42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3336,8 +3342,8 @@
       </c>
     </row>
     <row r="43" ht="22.5">
-      <c r="A43" s="4">
-        <v>62</v>
+      <c r="A43" s="7">
+        <v>56</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>85</v>
@@ -3347,10 +3353,10 @@
       </c>
     </row>
     <row r="44" ht="22.5">
-      <c r="A44" s="7">
-        <v>63</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="4">
+        <v>62</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -3359,7 +3365,7 @@
     </row>
     <row r="45" ht="22.5">
       <c r="A45" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>89</v>
@@ -3370,9 +3376,9 @@
     </row>
     <row r="46" ht="22.5">
       <c r="A46" s="7">
-        <v>65</v>
-      </c>
-      <c r="B46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3381,9 +3387,9 @@
     </row>
     <row r="47" ht="22.5">
       <c r="A47" s="7">
-        <v>66</v>
-      </c>
-      <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -3392,7 +3398,7 @@
     </row>
     <row r="48" ht="22.5">
       <c r="A48" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>95</v>
@@ -3403,31 +3409,31 @@
     </row>
     <row r="49" ht="22.5">
       <c r="A49" s="7">
+        <v>67</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5">
+      <c r="A50" s="7">
         <v>69</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" ht="22.5">
-      <c r="A50" s="4">
-        <v>70</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" ht="22.5">
-      <c r="A51" s="10">
-        <v>71</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="4">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3435,8 +3441,8 @@
       </c>
     </row>
     <row r="52" ht="22.5">
-      <c r="A52" s="7">
-        <v>73</v>
+      <c r="A52" s="10">
+        <v>71</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>103</v>
@@ -3447,7 +3453,7 @@
     </row>
     <row r="53" ht="22.5">
       <c r="A53" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>105</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="54" ht="22.5">
       <c r="A54" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>107</v>
@@ -3469,7 +3475,7 @@
     </row>
     <row r="55" ht="22.5">
       <c r="A55" s="7">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>109</v>
@@ -3480,7 +3486,7 @@
     </row>
     <row r="56" ht="22.5">
       <c r="A56" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>111</v>
@@ -3491,7 +3497,7 @@
     </row>
     <row r="57" ht="22.5">
       <c r="A57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>113</v>
@@ -3501,8 +3507,8 @@
       </c>
     </row>
     <row r="58" ht="22.5">
-      <c r="A58" s="4">
-        <v>81</v>
+      <c r="A58" s="7">
+        <v>80</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>115</v>
@@ -3512,8 +3518,8 @@
       </c>
     </row>
     <row r="59" ht="22.5">
-      <c r="A59" s="7">
-        <v>82</v>
+      <c r="A59" s="4">
+        <v>81</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>117</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="60" ht="22.5">
       <c r="A60" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>119</v>
@@ -3535,20 +3541,20 @@
     </row>
     <row r="61" ht="22.5">
       <c r="A61" s="7">
-        <v>87</v>
-      </c>
-      <c r="B61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="22.5">
       <c r="A62" s="7">
-        <v>89</v>
-      </c>
-      <c r="B62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -3556,19 +3562,19 @@
       </c>
     </row>
     <row r="63" ht="22.5">
-      <c r="A63" s="4">
-        <v>90</v>
+      <c r="A63" s="7">
+        <v>89</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="22.5">
-      <c r="A64" s="7">
-        <v>91</v>
+      <c r="A64" s="4">
+        <v>90</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>127</v>
@@ -3577,9 +3583,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" ht="22.5">
       <c r="A65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>129</v>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>131</v>
@@ -3601,7 +3607,7 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>133</v>
@@ -3612,7 +3618,7 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>135</v>
@@ -3623,7 +3629,7 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>137</v>
@@ -3633,30 +3639,30 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="4">
+      <c r="A70" s="7">
+        <v>98</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="4">
         <v>100</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="A71" s="7">
-        <v>101</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>143</v>
@@ -3667,7 +3673,7 @@
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>145</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="7">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>147</v>
@@ -3689,29 +3695,29 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="4">
-        <v>111</v>
+      <c r="A77" s="7">
+        <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>153</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>155</v>
@@ -3732,8 +3738,8 @@
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="7">
-        <v>114</v>
+      <c r="A79" s="4">
+        <v>112</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>157</v>
@@ -3744,9 +3750,9 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="7">
-        <v>115</v>
-      </c>
-      <c r="B80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3755,9 +3761,9 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="7">
-        <v>116</v>
-      </c>
-      <c r="B81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3766,9 +3772,9 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="7">
-        <v>117</v>
-      </c>
-      <c r="B82" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -3776,8 +3782,8 @@
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="4">
-        <v>120</v>
+      <c r="A83" s="7">
+        <v>117</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>165</v>
@@ -3787,8 +3793,8 @@
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="7">
-        <v>121</v>
+      <c r="A84" s="4">
+        <v>120</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>167</v>
@@ -3799,7 +3805,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>169</v>
@@ -3810,9 +3816,9 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="7">
-        <v>124</v>
-      </c>
-      <c r="B86" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -3821,9 +3827,9 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="7">
-        <v>125</v>
-      </c>
-      <c r="B87" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -3832,7 +3838,7 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="7">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>175</v>
@@ -3843,7 +3849,7 @@
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>177</v>
@@ -3853,8 +3859,8 @@
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="4">
-        <v>130</v>
+      <c r="A90" s="7">
+        <v>129</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>179</v>
@@ -3864,8 +3870,8 @@
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="7">
-        <v>131</v>
+      <c r="A91" s="4">
+        <v>130</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>181</v>
@@ -3876,7 +3882,7 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>183</v>
@@ -3887,7 +3893,7 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>185</v>
@@ -3898,7 +3904,7 @@
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>187</v>
@@ -3909,29 +3915,29 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="7">
-        <v>135</v>
-      </c>
-      <c r="B95" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="7">
-        <v>136</v>
-      </c>
-      <c r="B96" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>193</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>195</v>
@@ -3953,9 +3959,9 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="7">
-        <v>139</v>
-      </c>
-      <c r="B99" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3963,10 +3969,10 @@
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="4">
-        <v>140</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="7">
+        <v>139</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -3974,10 +3980,10 @@
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="7">
-        <v>141</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="4">
+        <v>140</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -3986,7 +3992,7 @@
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>203</v>
@@ -3997,9 +4003,9 @@
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="7">
-        <v>143</v>
-      </c>
-      <c r="B103" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -4008,9 +4014,9 @@
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="7">
-        <v>145</v>
-      </c>
-      <c r="B104" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -4019,9 +4025,9 @@
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="7">
-        <v>146</v>
-      </c>
-      <c r="B105" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -4030,9 +4036,9 @@
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="7">
-        <v>147</v>
-      </c>
-      <c r="B106" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>211</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -4041,9 +4047,9 @@
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="7">
-        <v>148</v>
-      </c>
-      <c r="B107" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -4052,7 +4058,7 @@
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>215</v>
@@ -4062,8 +4068,8 @@
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="4">
-        <v>152</v>
+      <c r="A109" s="7">
+        <v>149</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>217</v>
@@ -4073,8 +4079,8 @@
       </c>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="7">
-        <v>153</v>
+      <c r="A110" s="4">
+        <v>152</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>219</v>
@@ -4085,31 +4091,31 @@
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="7">
-        <v>156</v>
-      </c>
-      <c r="B113" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -4118,7 +4124,7 @@
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>227</v>
@@ -4129,9 +4135,9 @@
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="7">
-        <v>158</v>
-      </c>
-      <c r="B115" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -4139,10 +4145,10 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="4">
-        <v>160</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="7">
+        <v>158</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4150,10 +4156,10 @@
       </c>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="7">
-        <v>161</v>
-      </c>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="4">
+        <v>160</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -4162,9 +4168,9 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="7">
-        <v>163</v>
-      </c>
-      <c r="B118" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>235</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -4173,7 +4179,7 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>237</v>
@@ -4184,9 +4190,9 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="7">
-        <v>165</v>
-      </c>
-      <c r="B120" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -4195,7 +4201,7 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>241</v>
@@ -4206,9 +4212,9 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="7">
-        <v>168</v>
-      </c>
-      <c r="B122" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>243</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -4217,20 +4223,20 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="4">
-        <v>171</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="7">
+        <v>169</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -4238,19 +4244,19 @@
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="7">
-        <v>172</v>
+      <c r="A125" s="4">
+        <v>171</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>251</v>
@@ -4261,9 +4267,9 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="7">
-        <v>175</v>
-      </c>
-      <c r="B127" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>253</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -4272,7 +4278,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="7">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>255</v>
@@ -4283,7 +4289,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>257</v>
@@ -4293,10 +4299,10 @@
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="4">
-        <v>181</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="A130" s="7">
+        <v>179</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4304,8 +4310,8 @@
       </c>
     </row>
     <row r="131" ht="14.25">
-      <c r="A131" s="7">
-        <v>182</v>
+      <c r="A131" s="4">
+        <v>181</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>261</v>
@@ -4316,7 +4322,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>263</v>
@@ -4327,7 +4333,7 @@
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="7">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>265</v>
@@ -4338,7 +4344,7 @@
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>267</v>
@@ -4349,29 +4355,29 @@
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="4">
+      <c r="A136" s="7">
+        <v>189</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="4">
         <v>190</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25">
-      <c r="A137" s="7">
-        <v>192</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>273</v>
@@ -4382,9 +4388,9 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="7">
-        <v>195</v>
-      </c>
-      <c r="B138" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4393,29 +4399,29 @@
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="7">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="4">
-        <v>201</v>
+      <c r="A140" s="7">
+        <v>196</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="141" ht="14.25">
-      <c r="A141" s="7">
-        <v>202</v>
+      <c r="A141" s="4">
+        <v>201</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>281</v>
@@ -4426,7 +4432,7 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="7">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>283</v>
@@ -4437,31 +4443,31 @@
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="7">
-        <v>207</v>
-      </c>
-      <c r="B143" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="7">
-        <v>208</v>
-      </c>
-      <c r="B144" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="7">
-        <v>209</v>
-      </c>
-      <c r="B145" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C145" s="6" t="s">
@@ -4469,8 +4475,8 @@
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="4">
-        <v>210</v>
+      <c r="A146" s="7">
+        <v>209</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>291</v>
@@ -4480,10 +4486,10 @@
       </c>
     </row>
     <row r="147" ht="14.25">
-      <c r="A147" s="7">
-        <v>211</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="A147" s="4">
+        <v>210</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C147" s="6" t="s">
@@ -4492,7 +4498,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>295</v>
@@ -4503,7 +4509,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>297</v>
@@ -4514,7 +4520,7 @@
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>299</v>
@@ -4524,10 +4530,10 @@
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="10">
-        <v>215</v>
-      </c>
-      <c r="B151" s="11" t="s">
+      <c r="A151" s="7">
+        <v>214</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>301</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -4535,10 +4541,10 @@
       </c>
     </row>
     <row r="152" ht="14.25">
-      <c r="A152" s="7">
-        <v>216</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="10">
+        <v>215</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -4547,7 +4553,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>305</v>
@@ -4558,7 +4564,7 @@
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="7">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>307</v>
@@ -4568,8 +4574,8 @@
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="4">
-        <v>220</v>
+      <c r="A155" s="7">
+        <v>219</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>309</v>
@@ -4579,10 +4585,10 @@
       </c>
     </row>
     <row r="156" ht="14.25">
-      <c r="A156" s="7">
-        <v>222</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="A156" s="4">
+        <v>220</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>311</v>
       </c>
       <c r="C156" s="6" t="s">
@@ -4591,29 +4597,29 @@
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="7">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="7">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="9" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="7">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>317</v>
@@ -4624,7 +4630,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="7">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>319</v>
@@ -4635,7 +4641,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="7">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>321</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>323</v>
@@ -4656,8 +4662,8 @@
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="4">
-        <v>230</v>
+      <c r="A163" s="7">
+        <v>229</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>325</v>
@@ -4667,8 +4673,8 @@
       </c>
     </row>
     <row r="164" ht="14.25">
-      <c r="A164" s="7">
-        <v>231</v>
+      <c r="A164" s="4">
+        <v>230</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>327</v>
@@ -4679,7 +4685,7 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="7">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>329</v>
@@ -4690,9 +4696,9 @@
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="7">
-        <v>234</v>
-      </c>
-      <c r="B166" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C166" s="6" t="s">
@@ -4701,7 +4707,7 @@
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="7">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>333</v>
@@ -4712,9 +4718,9 @@
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="7">
-        <v>238</v>
-      </c>
-      <c r="B168" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4723,9 +4729,9 @@
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="7">
-        <v>239</v>
-      </c>
-      <c r="B169" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>337</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -4733,10 +4739,10 @@
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="4">
-        <v>240</v>
-      </c>
-      <c r="B170" s="8" t="s">
+      <c r="A170" s="7">
+        <v>239</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>339</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -4744,8 +4750,8 @@
       </c>
     </row>
     <row r="171" ht="14.25">
-      <c r="A171" s="7">
-        <v>241</v>
+      <c r="A171" s="4">
+        <v>240</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>341</v>
@@ -4756,9 +4762,9 @@
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="7">
-        <v>243</v>
-      </c>
-      <c r="B172" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -4767,29 +4773,29 @@
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="7">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="7">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="4">
-        <v>251</v>
+      <c r="A175" s="7">
+        <v>247</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>349</v>
@@ -4799,8 +4805,8 @@
       </c>
     </row>
     <row r="176" ht="14.25">
-      <c r="A176" s="7">
-        <v>252</v>
+      <c r="A176" s="4">
+        <v>251</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>351</v>
@@ -4811,7 +4817,7 @@
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>353</v>
@@ -4822,9 +4828,9 @@
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="7">
-        <v>254</v>
-      </c>
-      <c r="B178" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -4833,9 +4839,9 @@
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="7">
-        <v>255</v>
-      </c>
-      <c r="B179" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -4844,9 +4850,9 @@
     </row>
     <row r="180" ht="14.25">
       <c r="A180" s="7">
-        <v>256</v>
-      </c>
-      <c r="B180" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>359</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -4855,7 +4861,7 @@
     </row>
     <row r="181" ht="14.25">
       <c r="A181" s="7">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>361</v>
@@ -4866,9 +4872,9 @@
     </row>
     <row r="182" ht="14.25">
       <c r="A182" s="7">
-        <v>258</v>
-      </c>
-      <c r="B182" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C182" s="6" t="s">
@@ -4876,8 +4882,8 @@
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="4">
-        <v>260</v>
+      <c r="A183" s="7">
+        <v>258</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>365</v>
@@ -4887,8 +4893,8 @@
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="7">
-        <v>261</v>
+      <c r="A184" s="4">
+        <v>260</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>367</v>
@@ -4899,7 +4905,7 @@
     </row>
     <row r="185" ht="14.25">
       <c r="A185" s="7">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>369</v>
@@ -4910,7 +4916,7 @@
     </row>
     <row r="186" ht="14.25">
       <c r="A186" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>371</v>
@@ -4921,29 +4927,29 @@
     </row>
     <row r="187" ht="14.25">
       <c r="A187" s="7">
-        <v>264</v>
-      </c>
-      <c r="B187" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="6" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="188" ht="14.25">
       <c r="A188" s="7">
-        <v>266</v>
-      </c>
-      <c r="B188" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="189" ht="14.25">
       <c r="A189" s="7">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>377</v>
@@ -4953,8 +4959,8 @@
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="4">
-        <v>271</v>
+      <c r="A190" s="7">
+        <v>267</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>379</v>
@@ -4964,52 +4970,52 @@
       </c>
     </row>
     <row r="191" ht="14.25">
-      <c r="A191" s="7">
-        <v>274</v>
-      </c>
-      <c r="B191" s="8" t="s">
+      <c r="A191" s="4">
+        <v>271</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="6" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="192" ht="14.25">
       <c r="A192" s="7">
+        <v>274</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" ht="22.5">
+      <c r="A193" s="7">
         <v>275</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="193" ht="14.25">
-      <c r="A193" s="7">
-        <v>276</v>
-      </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="5" t="s">
         <v>385</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" ht="14.25">
+    <row r="194" ht="22.5">
       <c r="A194" s="7">
-        <v>278</v>
-      </c>
-      <c r="B194" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="195" ht="14.25">
+    <row r="195" ht="22.5">
       <c r="A195" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>389</v>
@@ -5018,31 +5024,31 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" ht="14.25">
-      <c r="A196" s="4">
-        <v>280</v>
-      </c>
-      <c r="B196" s="8" t="s">
+    <row r="196" ht="22.5">
+      <c r="A196" s="7">
+        <v>279</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" ht="14.25">
-      <c r="A197" s="7">
-        <v>281</v>
-      </c>
-      <c r="B197" s="5" t="s">
+    <row r="197" ht="22.5">
+      <c r="A197" s="4">
+        <v>280</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="198" ht="14.25">
+    <row r="198" ht="22.5">
       <c r="A198" s="7">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>395</v>
@@ -5051,53 +5057,53 @@
         <v>396</v>
       </c>
     </row>
-    <row r="199" ht="14.25">
+    <row r="199" ht="22.5">
       <c r="A199" s="7">
-        <v>287</v>
-      </c>
-      <c r="B199" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="200" ht="14.25">
+    <row r="200" ht="22.5">
       <c r="A200" s="7">
-        <v>288</v>
-      </c>
-      <c r="B200" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>399</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="201" ht="14.25">
-      <c r="A201" s="4">
-        <v>290</v>
+    <row r="201" ht="22.5">
+      <c r="A201" s="7">
+        <v>288</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="202" ht="14.25">
-      <c r="A202" s="7">
-        <v>291</v>
+    <row r="202" ht="22.5">
+      <c r="A202" s="4">
+        <v>290</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="203" ht="14.25">
+    <row r="203" ht="22.5">
       <c r="A203" s="7">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>405</v>
@@ -5106,31 +5112,31 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" ht="14.25">
+    <row r="204" ht="22.5">
       <c r="A204" s="7">
-        <v>293</v>
-      </c>
-      <c r="B204" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="205" ht="14.25">
+    <row r="205" ht="22.5">
       <c r="A205" s="7">
+        <v>293</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" ht="22.5">
+      <c r="A206" s="7">
         <v>295</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25">
-      <c r="A206" s="7">
-        <v>296</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>411</v>
@@ -5139,20 +5145,20 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" ht="14.25">
+    <row r="207" ht="22.5">
       <c r="A207" s="7">
+        <v>296</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" ht="22.5">
+      <c r="A208" s="7">
         <v>297</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25">
-      <c r="A208" s="7">
-        <v>298</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>415</v>
@@ -5161,9 +5167,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="209" ht="14.25">
-      <c r="A209" s="4">
-        <v>302</v>
+    <row r="209" ht="22.5">
+      <c r="A209" s="7">
+        <v>298</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>417</v>
@@ -5172,20 +5178,20 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" ht="14.25">
-      <c r="A210" s="7">
-        <v>303</v>
-      </c>
-      <c r="B210" s="5" t="s">
+    <row r="210" ht="22.5">
+      <c r="A210" s="4">
+        <v>302</v>
+      </c>
+      <c r="B210" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="211" ht="14.25">
+    <row r="211" ht="22.5">
       <c r="A211" s="7">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>421</v>
@@ -5194,31 +5200,31 @@
         <v>422</v>
       </c>
     </row>
-    <row r="212" ht="14.25">
+    <row r="212" ht="22.5">
       <c r="A212" s="7">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="213" ht="14.25">
+    <row r="213" ht="22.5">
       <c r="A213" s="7">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="214" ht="14.25">
+    <row r="214" ht="22.5">
       <c r="A214" s="7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>427</v>
@@ -5227,20 +5233,20 @@
         <v>428</v>
       </c>
     </row>
-    <row r="215" ht="14.25">
+    <row r="215" ht="22.5">
       <c r="A215" s="7">
-        <v>308</v>
-      </c>
-      <c r="B215" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>429</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="216" ht="14.25">
-      <c r="A216" s="4">
-        <v>312</v>
+    <row r="216" ht="22.5">
+      <c r="A216" s="7">
+        <v>308</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>431</v>
@@ -5249,53 +5255,53 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" ht="14.25">
-      <c r="A217" s="7">
-        <v>313</v>
+    <row r="217" ht="22.5">
+      <c r="A217" s="4">
+        <v>312</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="218" ht="14.25">
+    <row r="218" ht="22.5">
       <c r="A218" s="7">
+        <v>313</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="219" ht="22.5">
+      <c r="A219" s="7">
         <v>314</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="219" ht="14.25">
-      <c r="A219" s="7">
-        <v>315</v>
-      </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="5" t="s">
         <v>437</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="220" ht="14.25">
+    <row r="220" ht="22.5">
       <c r="A220" s="7">
-        <v>316</v>
-      </c>
-      <c r="B220" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="221" ht="14.25">
+    <row r="221" ht="22.5">
       <c r="A221" s="7">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>441</v>
@@ -5304,31 +5310,31 @@
         <v>442</v>
       </c>
     </row>
-    <row r="222" ht="14.25">
+    <row r="222" ht="22.5">
       <c r="A222" s="7">
-        <v>319</v>
-      </c>
-      <c r="B222" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="223" ht="14.25">
-      <c r="A223" s="4">
-        <v>320</v>
-      </c>
-      <c r="B223" s="5" t="s">
+    <row r="223" ht="22.5">
+      <c r="A223" s="7">
+        <v>319</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>445</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="224" ht="14.25">
-      <c r="A224" s="7">
-        <v>323</v>
+    <row r="224" ht="22.5">
+      <c r="A224" s="4">
+        <v>320</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>447</v>
@@ -5337,9 +5343,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="225" ht="14.25">
+    <row r="225" ht="22.5">
       <c r="A225" s="7">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>449</v>
@@ -5348,9 +5354,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" ht="14.25">
+    <row r="226" ht="22.5">
       <c r="A226" s="7">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>451</v>
@@ -5359,9 +5365,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="227" ht="14.25">
+    <row r="227" ht="22.5">
       <c r="A227" s="7">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>453</v>
@@ -5370,9 +5376,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" ht="14.25">
+    <row r="228" ht="22.5">
       <c r="A228" s="7">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>455</v>
@@ -5381,9 +5387,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" ht="14.25">
+    <row r="229" ht="22.5">
       <c r="A229" s="7">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>457</v>
@@ -5392,9 +5398,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="230" ht="14.25">
-      <c r="A230" s="4">
-        <v>330</v>
+    <row r="230" ht="22.5">
+      <c r="A230" s="7">
+        <v>329</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>459</v>
@@ -5403,9 +5409,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="231" ht="14.25">
-      <c r="A231" s="7">
-        <v>331</v>
+    <row r="231" ht="22.5">
+      <c r="A231" s="4">
+        <v>330</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>461</v>
@@ -5414,9 +5420,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" ht="14.25">
+    <row r="232" ht="22.5">
       <c r="A232" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>463</v>
@@ -5425,9 +5431,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="233" ht="14.25">
+    <row r="233" ht="22.5">
       <c r="A233" s="7">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>465</v>
@@ -5436,9 +5442,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="234" ht="14.25">
+    <row r="234" ht="22.5">
       <c r="A234" s="7">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>467</v>
@@ -5447,9 +5453,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="235" ht="14.25">
+    <row r="235" ht="22.5">
       <c r="A235" s="7">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>469</v>
@@ -5458,9 +5464,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="236" ht="14.25">
+    <row r="236" ht="22.5">
       <c r="A236" s="7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>471</v>
@@ -5469,20 +5475,20 @@
         <v>472</v>
       </c>
     </row>
-    <row r="237" ht="14.25">
+    <row r="237" ht="22.5">
       <c r="A237" s="7">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="238" ht="14.25">
+    <row r="238" ht="22.5">
       <c r="A238" s="7">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>475</v>
@@ -5491,9 +5497,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="239" ht="14.25">
-      <c r="A239" s="4">
-        <v>340</v>
+    <row r="239" ht="22.5">
+      <c r="A239" s="7">
+        <v>339</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>477</v>
@@ -5502,20 +5508,20 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" ht="14.25">
-      <c r="A240" s="7">
-        <v>341</v>
+    <row r="240" ht="22.5">
+      <c r="A240" s="4">
+        <v>340</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="241" ht="14.25">
+    <row r="241" ht="22.5">
       <c r="A241" s="7">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>481</v>
@@ -5524,9 +5530,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="242" ht="14.25">
+    <row r="242" ht="22.5">
       <c r="A242" s="7">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>483</v>
@@ -5535,31 +5541,31 @@
         <v>484</v>
       </c>
     </row>
-    <row r="243" ht="14.25">
+    <row r="243" ht="22.5">
       <c r="A243" s="7">
+        <v>343</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="244" ht="22.5">
+      <c r="A244" s="7">
         <v>345</v>
       </c>
-      <c r="B243" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="244" ht="14.25">
-      <c r="A244" s="7">
+      <c r="B244" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="245" ht="22.5">
+      <c r="A245" s="7">
         <v>346</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="245" ht="14.25">
-      <c r="A245" s="7">
-        <v>347</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>489</v>
@@ -5568,9 +5574,9 @@
         <v>490</v>
       </c>
     </row>
-    <row r="246" ht="14.25">
+    <row r="246" ht="22.5">
       <c r="A246" s="7">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>491</v>
@@ -5579,9 +5585,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" ht="14.25">
-      <c r="A247" s="4">
-        <v>350</v>
+    <row r="247" ht="22.5">
+      <c r="A247" s="7">
+        <v>348</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>493</v>
@@ -5590,9 +5596,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="248" ht="14.25">
-      <c r="A248" s="7">
-        <v>351</v>
+    <row r="248" ht="22.5">
+      <c r="A248" s="4">
+        <v>350</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>495</v>
@@ -5601,31 +5607,31 @@
         <v>496</v>
       </c>
     </row>
-    <row r="249" ht="14.25">
+    <row r="249" ht="22.5">
       <c r="A249" s="7">
-        <v>352</v>
-      </c>
-      <c r="B249" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="250" ht="14.25">
+    <row r="250" ht="22.5">
       <c r="A250" s="7">
-        <v>353</v>
-      </c>
-      <c r="B250" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>499</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="251" ht="14.25">
+    <row r="251" ht="22.5">
       <c r="A251" s="7">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>501</v>
@@ -5634,9 +5640,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="252" ht="14.25">
+    <row r="252" ht="22.5">
       <c r="A252" s="7">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>503</v>
@@ -5645,31 +5651,31 @@
         <v>504</v>
       </c>
     </row>
-    <row r="253" ht="14.25">
-      <c r="A253" s="4">
-        <v>360</v>
-      </c>
-      <c r="B253" s="8" t="s">
+    <row r="253" ht="22.5">
+      <c r="A253" s="7">
+        <v>359</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="254" ht="14.25">
-      <c r="A254" s="7">
-        <v>361</v>
-      </c>
-      <c r="B254" s="5" t="s">
+    <row r="254" ht="22.5">
+      <c r="A254" s="4">
+        <v>360</v>
+      </c>
+      <c r="B254" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="255" ht="14.25">
+    <row r="255" ht="22.5">
       <c r="A255" s="7">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>509</v>
@@ -5678,9 +5684,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" ht="14.25">
+    <row r="256" ht="22.5">
       <c r="A256" s="7">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>511</v>
@@ -5691,7 +5697,7 @@
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="7">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>513</v>
@@ -5702,7 +5708,7 @@
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="7">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>515</v>
@@ -5712,8 +5718,8 @@
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="4">
-        <v>370</v>
+      <c r="A259" s="7">
+        <v>369</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>517</v>
@@ -5723,10 +5729,10 @@
       </c>
     </row>
     <row r="260" ht="14.25">
-      <c r="A260" s="7">
-        <v>372</v>
-      </c>
-      <c r="B260" s="8" t="s">
+      <c r="A260" s="4">
+        <v>370</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>519</v>
       </c>
       <c r="C260" s="6" t="s">
@@ -5735,9 +5741,9 @@
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="7">
-        <v>373</v>
-      </c>
-      <c r="B261" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>521</v>
       </c>
       <c r="C261" s="6" t="s">
@@ -5746,9 +5752,9 @@
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="7">
-        <v>374</v>
-      </c>
-      <c r="B262" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>523</v>
       </c>
       <c r="C262" s="6" t="s">
@@ -5757,7 +5763,7 @@
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="7">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>525</v>
@@ -5768,7 +5774,7 @@
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="7">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>527</v>
@@ -5779,9 +5785,9 @@
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="7">
-        <v>378</v>
-      </c>
-      <c r="B265" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B265" s="8" t="s">
         <v>529</v>
       </c>
       <c r="C265" s="6" t="s">
@@ -5790,7 +5796,7 @@
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="7">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>531</v>
@@ -5800,8 +5806,8 @@
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="4">
-        <v>380</v>
+      <c r="A267" s="7">
+        <v>379</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>533</v>
@@ -5811,30 +5817,30 @@
       </c>
     </row>
     <row r="268" ht="14.25">
-      <c r="A268" s="7">
-        <v>381</v>
-      </c>
-      <c r="B268" s="8" t="s">
+      <c r="A268" s="4">
+        <v>380</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="6" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="7">
-        <v>382</v>
-      </c>
-      <c r="B269" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B269" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C269" s="9" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="7">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>539</v>
@@ -5844,41 +5850,41 @@
       </c>
     </row>
     <row r="271" ht="14.25">
-      <c r="A271" s="12">
-        <v>385</v>
-      </c>
-      <c r="B271" s="13" t="s">
+      <c r="A271" s="7">
+        <v>383</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C271" s="6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="12">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="12">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="C273" s="15" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="12">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>547</v>
@@ -5889,18 +5895,18 @@
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="12">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="16">
-        <v>390</v>
+      <c r="A276" s="12">
+        <v>389</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>551</v>
@@ -5910,8 +5916,8 @@
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="12">
-        <v>391</v>
+      <c r="A277" s="16">
+        <v>390</v>
       </c>
       <c r="B277" s="13" t="s">
         <v>553</v>
@@ -5922,7 +5928,7 @@
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="12">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B278" s="13" t="s">
         <v>555</v>
@@ -5933,18 +5939,18 @@
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="12">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C279" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="12">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B280" s="13" t="s">
         <v>559</v>
@@ -5955,18 +5961,18 @@
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="12">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="12">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B282" s="13" t="s">
         <v>563</v>
@@ -5977,7 +5983,7 @@
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="12">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B283" s="13" t="s">
         <v>565</v>
@@ -5988,7 +5994,7 @@
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="12">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B284" s="13" t="s">
         <v>567</v>
@@ -5998,19 +6004,30 @@
       </c>
     </row>
     <row r="285" ht="14.25">
-      <c r="A285" s="16">
-        <v>400</v>
+      <c r="A285" s="12">
+        <v>399</v>
       </c>
       <c r="B285" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="15" t="s">
         <v>570</v>
       </c>
     </row>
+    <row r="286" ht="14.25">
+      <c r="A286" s="16">
+        <v>400</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C285" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="A2:A285"/>
+  <sortState ref="A2:C286" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="A2:A286"/>
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/machine_meta.xlsx
+++ b/machine_meta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t>編號</t>
   </si>
@@ -2113,6 +2113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Zonegran FC 100 mg Tab</t>
+  </si>
+  <si>
+    <t>ANX01O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiedin 1 mg Tab</t>
   </si>
   <si>
     <t>ATI01O</t>
@@ -2868,7 +2874,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A255" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5861,41 +5867,41 @@
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="A272" s="12">
-        <v>385</v>
-      </c>
-      <c r="B272" s="13" t="s">
+      <c r="A272" s="7">
+        <v>384</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C272" s="6" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="12">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="14" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="12">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C274" s="15" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="12">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>549</v>
@@ -5906,18 +5912,18 @@
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="12">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="14" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="16">
-        <v>390</v>
+      <c r="A277" s="12">
+        <v>389</v>
       </c>
       <c r="B277" s="13" t="s">
         <v>553</v>
@@ -5927,8 +5933,8 @@
       </c>
     </row>
     <row r="278" ht="14.25">
-      <c r="A278" s="12">
-        <v>391</v>
+      <c r="A278" s="16">
+        <v>390</v>
       </c>
       <c r="B278" s="13" t="s">
         <v>555</v>
@@ -5939,7 +5945,7 @@
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="12">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>557</v>
@@ -5950,18 +5956,18 @@
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="12">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B280" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="C280" s="15" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="12">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>561</v>
@@ -5972,18 +5978,18 @@
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="12">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B282" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="14" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="12">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B283" s="13" t="s">
         <v>565</v>
@@ -5994,7 +6000,7 @@
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="12">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B284" s="13" t="s">
         <v>567</v>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="285" ht="14.25">
       <c r="A285" s="12">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B285" s="13" t="s">
         <v>569</v>
@@ -6015,19 +6021,30 @@
       </c>
     </row>
     <row r="286" ht="14.25">
-      <c r="A286" s="16">
-        <v>400</v>
+      <c r="A286" s="12">
+        <v>399</v>
       </c>
       <c r="B286" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="C286" s="14" t="s">
+      <c r="C286" s="15" t="s">
         <v>572</v>
       </c>
     </row>
+    <row r="287" ht="14.25">
+      <c r="A287" s="16">
+        <v>400</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C286" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="A2:A286"/>
+  <sortState ref="A2:C287" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="A2:A287"/>
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/machine_meta.xlsx
+++ b/machine_meta.xlsx
@@ -2115,10 +2115,10 @@
     <t xml:space="preserve">Zonegran FC 100 mg Tab</t>
   </si>
   <si>
-    <t>ANX01O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiedin 1 mg Tab</t>
+    <t>ANX03O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiedin 1mg Tab#4</t>
   </si>
   <si>
     <t>ATI01O</t>
@@ -2874,7 +2874,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A255" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A264" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5701,7 +5701,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="257" ht="14.25">
+    <row r="257" ht="22.5">
       <c r="A257" s="7">
         <v>364</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="258" ht="14.25">
+    <row r="258" ht="22.5">
       <c r="A258" s="7">
         <v>367</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="259" ht="14.25">
+    <row r="259" ht="22.5">
       <c r="A259" s="7">
         <v>369</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="260" ht="14.25">
+    <row r="260" ht="22.5">
       <c r="A260" s="4">
         <v>370</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="261" ht="14.25">
+    <row r="261" ht="22.5">
       <c r="A261" s="7">
         <v>372</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="262" ht="14.25">
+    <row r="262" ht="22.5">
       <c r="A262" s="7">
         <v>373</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="263" ht="14.25">
+    <row r="263" ht="22.5">
       <c r="A263" s="7">
         <v>374</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="264" ht="14.25">
+    <row r="264" ht="22.5">
       <c r="A264" s="7">
         <v>376</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="265" ht="14.25">
+    <row r="265" ht="22.5">
       <c r="A265" s="7">
         <v>377</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="266" ht="14.25">
+    <row r="266" ht="22.5">
       <c r="A266" s="7">
         <v>378</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="267" ht="14.25">
+    <row r="267" ht="22.5">
       <c r="A267" s="7">
         <v>379</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="268" ht="14.25">
+    <row r="268" ht="22.5">
       <c r="A268" s="4">
         <v>380</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="269" ht="14.25">
+    <row r="269" ht="22.5">
       <c r="A269" s="7">
         <v>381</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="270" ht="14.25">
+    <row r="270" ht="22.5">
       <c r="A270" s="7">
         <v>382</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="271" ht="14.25">
+    <row r="271" ht="22.5">
       <c r="A271" s="7">
         <v>383</v>
       </c>
@@ -5866,18 +5866,18 @@
         <v>542</v>
       </c>
     </row>
-    <row r="272" ht="14.25">
-      <c r="A272" s="7">
+    <row r="272" ht="27">
+      <c r="A272" s="12">
         <v>384</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="14" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="273" ht="14.25">
+    <row r="273" ht="27">
       <c r="A273" s="12">
         <v>385</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="274" ht="14.25">
+    <row r="274" ht="27">
       <c r="A274" s="12">
         <v>386</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="275" ht="14.25">
+    <row r="275" ht="27">
       <c r="A275" s="12">
         <v>387</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="276" ht="14.25">
+    <row r="276" ht="27">
       <c r="A276" s="12">
         <v>388</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="277" ht="14.25">
+    <row r="277" ht="27">
       <c r="A277" s="12">
         <v>389</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="278" ht="14.25">
+    <row r="278" ht="27">
       <c r="A278" s="16">
         <v>390</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="279" ht="14.25">
+    <row r="279" ht="27">
       <c r="A279" s="12">
         <v>391</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="280" ht="14.25">
+    <row r="280" ht="27">
       <c r="A280" s="12">
         <v>392</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="281" ht="14.25">
+    <row r="281" ht="27">
       <c r="A281" s="12">
         <v>393</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="282" ht="14.25">
+    <row r="282" ht="27">
       <c r="A282" s="12">
         <v>394</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="283" ht="14.25">
+    <row r="283" ht="27">
       <c r="A283" s="12">
         <v>395</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="284" ht="14.25">
+    <row r="284" ht="27">
       <c r="A284" s="12">
         <v>396</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="285" ht="14.25">
+    <row r="285" ht="27">
       <c r="A285" s="12">
         <v>398</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="286" ht="14.25">
+    <row r="286" ht="27">
       <c r="A286" s="12">
         <v>399</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="287" ht="14.25">
+    <row r="287" ht="27">
       <c r="A287" s="16">
         <v>400</v>
       </c>
